--- a/js/db/BD_SWA.xlsx
+++ b/js/db/BD_SWA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kenji\Projetos\CursoReact\servo1\src\databaseExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Desktop\SeletorServoHtml\js\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB209FE7-53FB-41DF-9F9F-75987122925C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15105" yWindow="1455" windowWidth="12870" windowHeight="13800" firstSheet="7" activeTab="7" xr2:uid="{42B09F81-E083-4530-83E0-FDC9ECD87910}"/>
+    <workbookView xWindow="15105" yWindow="1455" windowWidth="12870" windowHeight="13800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sem Freio 220-240" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="Com Freio 220-240 20bits" sheetId="7" r:id="rId7"/>
     <sheet name="Com Freio 380-480 20bits" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="312">
   <si>
     <t xml:space="preserve">SWA 562-2,5-20 </t>
   </si>
@@ -977,12 +976,15 @@
   <si>
     <t>Cabo</t>
   </si>
+  <si>
+    <t>CP-...m-4X0,75-B</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1215,9 +1217,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1229,6 +1228,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1254,10 +1256,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1573,14 +1575,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3F2B90-B84B-4D03-9831-0A16A2CC0139}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="4"/>
@@ -1591,7 +1593,7 @@
     <col min="9" max="9" width="5.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
         <v>83</v>
       </c>
@@ -1620,23 +1622,23 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="18">
         <v>2000</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>68</v>
       </c>
       <c r="G2" s="3">
@@ -1649,19 +1651,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="3">
         <v>10362948</v>
       </c>
@@ -1672,19 +1674,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="3">
@@ -1697,19 +1699,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="3">
         <v>10362950</v>
       </c>
@@ -1720,21 +1722,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="3">
         <v>10362951</v>
       </c>
@@ -1745,19 +1747,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>13</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14" t="s">
         <v>62</v>
       </c>
       <c r="G7" s="3">
@@ -1770,19 +1772,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3">
         <v>15</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="3">
         <v>13</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="3">
         <v>10362953</v>
       </c>
@@ -1793,19 +1795,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3">
         <v>19</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="3">
         <v>10019957</v>
       </c>
@@ -1816,19 +1818,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3">
         <v>22</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
         <v>73</v>
       </c>
       <c r="G10" s="3">
@@ -1841,21 +1843,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="3">
         <v>25</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="3">
         <v>10363008</v>
       </c>
@@ -1866,23 +1868,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="18">
         <v>3000</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>68</v>
       </c>
       <c r="G12" s="3">
@@ -1896,19 +1898,19 @@
       </c>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="3">
         <v>10638981</v>
       </c>
@@ -1919,19 +1921,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="3">
         <v>10642826</v>
       </c>
@@ -1942,19 +1944,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="3">
         <v>12577069</v>
       </c>
@@ -1965,19 +1967,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="3">
         <v>10362937</v>
       </c>
@@ -1988,18 +1990,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="15"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="3" t="s">
         <v>58</v>
       </c>
@@ -2013,21 +2015,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G18" s="3">
@@ -2040,21 +2042,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="16"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="3">
         <v>10362940</v>
       </c>
@@ -2065,19 +2067,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="3">
         <v>12</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="3">
         <v>10362941</v>
       </c>
@@ -2088,19 +2090,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="3">
         <v>13</v>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="3">
         <v>18</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16" t="s">
+      <c r="E21" s="14"/>
+      <c r="F21" s="15" t="s">
         <v>73</v>
       </c>
       <c r="G21" s="3">
@@ -2113,21 +2115,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="3">
         <v>15</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="3">
         <v>20</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="16"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="3">
         <v>10362943</v>
       </c>
@@ -2138,19 +2140,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="3">
         <v>19</v>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="3">
         <v>23</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="17"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="3">
         <v>10362944</v>
       </c>
@@ -2161,20 +2163,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="18">
         <v>6000</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="14" t="s">
         <v>74</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -2190,19 +2192,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15" t="s">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G25" s="3">
@@ -2215,19 +2217,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="3">
         <v>10193038</v>
       </c>
@@ -2238,21 +2240,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="14" t="s">
         <v>62</v>
       </c>
       <c r="G27" s="3">
@@ -2265,19 +2267,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="14"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="3">
         <v>10639715</v>
       </c>
@@ -2288,18 +2290,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="14"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="15"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="3" t="s">
         <v>73</v>
       </c>
@@ -2315,15 +2317,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="F18:F20"/>
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="C12:C23"/>
     <mergeCell ref="C24:C29"/>
@@ -2334,6 +2327,15 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="E24:E26"/>
     <mergeCell ref="E6:E10"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="F18:F20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2341,14 +2343,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36BD57E-453B-4C6D-9102-D7E3578D76C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" style="5" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="5"/>
@@ -2357,7 +2359,7 @@
     <col min="7" max="9" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
         <v>83</v>
       </c>
@@ -2386,23 +2388,23 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>2000</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>68</v>
       </c>
       <c r="G2" s="6">
@@ -2415,19 +2417,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="9" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="6">
         <v>10156478</v>
       </c>
@@ -2438,19 +2440,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="6">
@@ -2463,19 +2465,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="6">
         <v>10639746</v>
       </c>
@@ -2486,21 +2488,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="9" t="s">
         <v>90</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="6">
         <v>10147677</v>
       </c>
@@ -2511,19 +2513,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14" t="s">
         <v>62</v>
       </c>
       <c r="G7" s="6">
@@ -2536,19 +2538,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="6">
         <v>10639830</v>
       </c>
@@ -2559,19 +2561,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="6">
         <v>10639833</v>
       </c>
@@ -2582,19 +2584,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
         <v>94</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
         <v>73</v>
       </c>
       <c r="G10" s="6">
@@ -2607,21 +2609,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="9" t="s">
         <v>95</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="6">
         <v>10639835</v>
       </c>
@@ -2632,23 +2634,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>3000</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>68</v>
       </c>
       <c r="G12" s="6">
@@ -2661,19 +2663,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="9" t="s">
         <v>97</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="6">
         <v>11794500</v>
       </c>
@@ -2684,19 +2686,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="9" t="s">
         <v>98</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="6">
         <v>11794501</v>
       </c>
@@ -2707,19 +2709,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="6">
         <v>10016398</v>
       </c>
@@ -2730,18 +2732,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="15"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="6" t="s">
         <v>58</v>
       </c>
@@ -2755,21 +2757,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="6" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>62</v>
       </c>
       <c r="G17" s="6">
@@ -2782,21 +2784,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
         <v>102</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="6">
         <v>10639918</v>
       </c>
@@ -2807,19 +2809,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
         <v>103</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="6">
         <v>10156482</v>
       </c>
@@ -2830,19 +2832,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
         <v>73</v>
       </c>
       <c r="G20" s="6">
@@ -2855,21 +2857,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="9" t="s">
         <v>105</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="6">
         <v>10360674</v>
       </c>
@@ -2880,19 +2882,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="9" t="s">
         <v>106</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="6">
         <v>10476478</v>
       </c>
@@ -2903,23 +2905,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="9" t="s">
         <v>107</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <v>6000</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G23" s="6">
@@ -2932,19 +2934,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="9" t="s">
         <v>108</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="6">
         <v>11794503</v>
       </c>
@@ -2955,19 +2957,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="6">
         <v>10016400</v>
       </c>
@@ -2978,21 +2980,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="14" t="s">
         <v>62</v>
       </c>
       <c r="G26" s="6">
@@ -3005,19 +3007,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="9" t="s">
         <v>111</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="6">
         <v>10639983</v>
       </c>
@@ -3028,18 +3030,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="15"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="15"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="6" t="s">
         <v>73</v>
       </c>
@@ -3055,6 +3057,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F17:F19"/>
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="C12:C22"/>
     <mergeCell ref="C23:C28"/>
@@ -3065,15 +3076,6 @@
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F17:F19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3081,14 +3083,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26308706-F64F-47B2-BFD0-0A7A5929466C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -3101,7 +3103,7 @@
     <col min="9" max="9" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>83</v>
       </c>
@@ -3130,7 +3132,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="9" t="s">
         <v>136</v>
       </c>
@@ -3143,10 +3145,10 @@
       <c r="D2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>183</v>
       </c>
       <c r="G2" s="6">
@@ -3159,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="9" t="s">
         <v>137</v>
       </c>
@@ -3170,8 +3172,8 @@
       <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="6">
         <v>11887161</v>
       </c>
@@ -3182,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
         <v>138</v>
       </c>
@@ -3193,8 +3195,8 @@
       <c r="D4" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="6">
         <v>11887163</v>
       </c>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>139</v>
       </c>
@@ -3216,10 +3218,10 @@
       <c r="D5" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>184</v>
       </c>
       <c r="G5" s="6">
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="9" t="s">
         <v>140</v>
       </c>
@@ -3243,8 +3245,8 @@
       <c r="D6" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="6">
         <v>11897854</v>
       </c>
@@ -3255,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="9" t="s">
         <v>141</v>
       </c>
@@ -3266,8 +3268,8 @@
       <c r="D7" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="6">
         <v>11897855</v>
       </c>
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
         <v>142</v>
       </c>
@@ -3289,8 +3291,8 @@
       <c r="D8" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="6">
         <v>11897856</v>
       </c>
@@ -3301,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
         <v>143</v>
       </c>
@@ -3312,8 +3314,8 @@
       <c r="D9" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="6">
         <v>11897857</v>
       </c>
@@ -3324,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
         <v>144</v>
       </c>
@@ -3335,7 +3337,7 @@
       <c r="D10" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="6" t="s">
         <v>185</v>
       </c>
@@ -3349,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="9" t="s">
         <v>212</v>
       </c>
@@ -3362,10 +3364,10 @@
       <c r="D11" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F11" s="15" t="s">
+      <c r="E11" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>186</v>
       </c>
       <c r="G11" s="6">
@@ -3378,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="9" t="s">
         <v>145</v>
       </c>
@@ -3389,8 +3391,8 @@
       <c r="D12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="6">
         <v>11887164</v>
       </c>
@@ -3401,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="9" t="s">
         <v>146</v>
       </c>
@@ -3412,8 +3414,8 @@
       <c r="D13" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="6">
         <v>11887165</v>
       </c>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="9" t="s">
         <v>147</v>
       </c>
@@ -3435,8 +3437,8 @@
       <c r="D14" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="6">
         <v>11887166</v>
       </c>
@@ -3447,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
         <v>148</v>
       </c>
@@ -3458,10 +3460,10 @@
       <c r="D15" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>184</v>
       </c>
       <c r="G15" s="6">
@@ -3474,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
         <v>149</v>
       </c>
@@ -3485,8 +3487,8 @@
       <c r="D16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="6">
         <v>11897889</v>
       </c>
@@ -3497,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
         <v>150</v>
       </c>
@@ -3508,8 +3510,8 @@
       <c r="D17" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="6">
         <v>11897890</v>
       </c>
@@ -3520,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
         <v>151</v>
       </c>
@@ -3531,8 +3533,8 @@
       <c r="D18" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="6">
         <v>11897891</v>
       </c>
@@ -3543,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
         <v>308</v>
       </c>
@@ -3554,8 +3556,8 @@
       <c r="D19" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15" t="s">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14" t="s">
         <v>185</v>
       </c>
       <c r="G19" s="6">
@@ -3568,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
         <v>152</v>
       </c>
@@ -3582,7 +3584,7 @@
       <c r="E20" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="6">
         <v>10036452</v>
       </c>
@@ -3593,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="9" t="s">
         <v>153</v>
       </c>
@@ -3606,10 +3608,10 @@
       <c r="D21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>183</v>
       </c>
       <c r="G21" s="6">
@@ -3622,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="9" t="s">
         <v>154</v>
       </c>
@@ -3633,8 +3635,8 @@
       <c r="D22" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="6">
         <v>11887273</v>
       </c>
@@ -3645,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="9" t="s">
         <v>155</v>
       </c>
@@ -3656,8 +3658,8 @@
       <c r="D23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15" t="s">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
         <v>184</v>
       </c>
       <c r="G23" s="6">
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="9" t="s">
         <v>156</v>
       </c>
@@ -3681,10 +3683,10 @@
       <c r="D24" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="6">
         <v>11897894</v>
       </c>
@@ -3695,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="9" t="s">
         <v>157</v>
       </c>
@@ -3706,8 +3708,8 @@
       <c r="D25" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="6">
         <v>11897895</v>
       </c>
@@ -3715,6 +3717,1451 @@
         <v>60</v>
       </c>
       <c r="I25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="C11:C20"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E25"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" style="5" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="14.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="5" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="6">
+        <v>11887171</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="6">
+        <v>11887173</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="6">
+        <v>11887175</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="6">
+        <v>11897896</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="6">
+        <v>11897897</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="6">
+        <v>11897929</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="6">
+        <v>11897931</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="6">
+        <v>11897933</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="6">
+        <v>12075911</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14">
+        <v>3000</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="6">
+        <v>12731994</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="6">
+        <v>11887177</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="6">
+        <v>11887180</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="6">
+        <v>11887182</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" s="6">
+        <v>11897934</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="6">
+        <v>11897935</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="6">
+        <v>11897936</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="6">
+        <v>11897937</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" s="6">
+        <v>12949487</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="6">
+        <v>12075909</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="14">
+        <v>6000</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" s="6">
+        <v>11980744</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="6">
+        <v>11887208</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" s="6">
+        <v>11897948</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="6">
+        <v>11897949</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="6">
+        <v>11897951</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="C11:C20"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E25"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18">
+      <c r="A2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="21">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="2">
+        <v>13752070</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18">
+      <c r="A4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="2">
+        <v>13596829</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="2">
+        <v>14015510</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="2">
+        <v>14015515</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="2">
+        <v>13389513</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="17">
+        <v>3000</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="2">
+        <v>14176775</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="2">
+        <v>13752068</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" s="2">
+        <v>14015513</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="2">
+        <v>13389476</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="2">
+        <v>13119110</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="17">
+        <v>6000</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I25" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3738,641 +5185,770 @@
     <mergeCell ref="F21:F22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB300BB-E756-4409-9F0F-8435B9B644F5}">
-  <dimension ref="A1:I25"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" style="5" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="14.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="5" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="5"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="13" t="s">
         <v>80</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="17">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="2">
+        <v>13752071</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>2000</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="G2" s="6">
-        <v>11887171</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="6">
-        <v>11887173</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="12">
+        <v>14015509</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="6">
-        <v>11887175</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="6">
-        <v>11897896</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B6" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="6">
-        <v>11897897</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="6">
-        <v>11897929</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="6">
-        <v>11897931</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="6">
-        <v>11897933</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="G10" s="6">
-        <v>12075911</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B11" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>3000</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="6">
-        <v>12731994</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="12">
+        <v>14159908</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B12" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="6">
-        <v>11887177</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="12">
+        <v>14176313</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B13" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="6">
-        <v>11887180</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B14" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="6">
-        <v>11887182</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="12">
+        <v>13790368</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="15" t="s">
+      <c r="E15" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="G15" s="6">
-        <v>11897934</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B16" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="6">
-        <v>11897935</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B17" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="6">
-        <v>11897936</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B18" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="6">
-        <v>11897937</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="12">
+        <v>14309423</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="B19" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15" t="s">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="G19" s="6">
-        <v>12949487</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G19" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="6">
-        <v>12075909</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="12">
+        <v>13752031</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>6000</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="15" t="s">
+      <c r="E21" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="G21" s="6">
-        <v>11980744</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B22" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="6">
-        <v>11887208</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B23" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15" t="s">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="G23" s="6">
-        <v>11897948</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B24" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="6">
-        <v>11897949</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B25" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="6">
-        <v>11897951</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I25" s="6">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="I25" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4387,784 +5963,6 @@
     <mergeCell ref="E15:E19"/>
     <mergeCell ref="E21:E23"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="F19:F20"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E15C65F-5324-43BE-8B52-55C0681B4C7E}">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="21">
-        <v>3000</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="2">
-        <v>13752070</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="2">
-        <v>13596829</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA86F30D-FFD4-4DD7-ACEC-C289B9D26B7A}">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="2">
-        <v>14015510</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="2">
-        <v>14015515</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G10" s="2">
-        <v>13389513</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="18">
-        <v>3000</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="2">
-        <v>14176775</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="2">
-        <v>13752068</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="G15" s="2">
-        <v>14015513</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="2">
-        <v>13389476</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="2">
-        <v>13119110</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="18">
-        <v>6000</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
     <mergeCell ref="F23:F25"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="F5:F9"/>
@@ -5172,802 +5970,6 @@
     <mergeCell ref="F15:F18"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="F21:F22"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="C11:C20"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E25"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87AE9A3-456A-41D0-9903-FCFEB4591A7E}">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="9" max="9" width="3.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="18">
-        <v>3000</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="2">
-        <v>13752071</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0629A8E4-BC59-41CC-9AF5-7C992C4A0618}">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="15">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="12">
-        <v>14015509</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="15">
-        <v>3000</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="G11" s="12">
-        <v>14159908</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="12">
-        <v>14176313</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="12">
-        <v>13790368</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="12">
-        <v>14309423</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="I18" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="I19" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="12">
-        <v>13752031</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="15">
-        <v>6000</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="I22" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="I23" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="I24" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="I25" s="12">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="C11:C20"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
